--- a/Results/Final_evaluation.xlsx
+++ b/Results/Final_evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Máster\TFM\Methodology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDA95EB-ED39-4502-96EA-C95E99742C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1B8884-0636-48AC-831A-69802301F83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="716" firstSheet="4" activeTab="7" xr2:uid="{EF322754-7D17-469C-8E62-D31BC0018A73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="716" firstSheet="7" activeTab="11" xr2:uid="{EF322754-7D17-469C-8E62-D31BC0018A73}"/>
   </bookViews>
   <sheets>
     <sheet name="General Topic Evaluation" sheetId="5" r:id="rId1"/>
@@ -31,35 +31,35 @@
     <definedName name="_xlchart.v1.1" hidden="1">'General Topic Evaluation'!$C$1</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'Conv. Topic Evaluation'!$AB$2:$AB$121</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'Conv. Topic Evaluation'!$Z$2:$AA$121</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Conv. Topic Evaluation'!$A$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Conv. Topic Evaluation'!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Conv. Topic Evaluation'!$C$2:$C$121</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Conv. Topic Evaluation'!$AY$2:$AZ$121</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Conv. Topic Evaluation'!$BA$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Conv. Topic Evaluation'!$BA$2:$BA$121</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Conv. Topic Evaluation'!$AB$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Conv. Topic Evaluation'!$AB$2:$AB$121</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Conv. Topic Evaluation'!$AY$2:$AZ$121</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Conv. Topic Evaluation'!$BA$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Conv. Topic Evaluation'!$BA$2:$BA$121</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Conv. Topic Evaluation'!$AB$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Conv. Topic Evaluation'!$AB$2:$AB$121</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Conv. Topic Evaluation'!$Z$2:$AA$121</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Conv. Topic Evaluation'!$A$2:$B$121</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Conv. Topic Evaluation'!$C$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'General Topic Evaluation'!$C$2:$C$81</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Conv. Topic Evaluation'!$Z$2:$AA$121</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Num. Topic Evaluation'!$A$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Num. Topic Evaluation'!$C$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Num. Topic Evaluation'!$C$2:$C$121</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Conv. Topic Evaluation'!$C$2:$C$121</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Num. Topic Evaluation'!$AW$2:$AX$121</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Num. Topic Evaluation'!$AY$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Num. Topic Evaluation'!$AY$2:$AY$121</definedName>
     <definedName name="_xlchart.v1.24" hidden="1">'Num. Topic Evaluation'!$A$2:$B$121</definedName>
     <definedName name="_xlchart.v1.25" hidden="1">'Num. Topic Evaluation'!$C$1</definedName>
     <definedName name="_xlchart.v1.26" hidden="1">'Num. Topic Evaluation'!$C$2:$C$121</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Num. Topic Evaluation'!$AW$2:$AX$121</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Num. Topic Evaluation'!$AY$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Num. Topic Evaluation'!$AY$2:$AY$121</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Num. Topic Evaluation'!$AA$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Num. Topic Evaluation'!$AA$2:$AA$121</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Num. Topic Evaluation'!$Y$2:$Z$121</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Conv. Topic Evaluation'!$AY$2:$AZ$121</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Num. Topic Evaluation'!$AA$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Num. Topic Evaluation'!$AA$2:$AA$121</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Num. Topic Evaluation'!$Y$2:$Z$121</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Num. Topic Evaluation'!$AA$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Num. Topic Evaluation'!$AA$2:$AA$121</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Num. Topic Evaluation'!$Y$2:$Z$121</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'Num. Topic Evaluation'!$AW$2:$AX$121</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'Num. Topic Evaluation'!$AY$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'Num. Topic Evaluation'!$AY$2:$AY$121</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Num. Topic Evaluation'!$AW$2:$AX$121</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Num. Topic Evaluation'!$AY$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Num. Topic Evaluation'!$AY$2:$AY$121</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Num. Topic Evaluation'!$A$2:$B$121</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Num. Topic Evaluation'!$C$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Num. Topic Evaluation'!$C$2:$C$121</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Num. Topic Evaluation'!$AA$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Num. Topic Evaluation'!$AA$2:$AA$121</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Num. Topic Evaluation'!$Y$2:$Z$121</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Conv. Topic Evaluation'!$BA$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'Conv. Topic Evaluation'!$BA$2:$BA$121</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'Conv. Topic Evaluation'!$A$2:$B$121</definedName>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="101">
   <si>
     <t>Words</t>
   </si>
@@ -190,12 +190,6 @@
     <t>science crypt</t>
   </si>
   <si>
-    <t>AVERAGE</t>
-  </si>
-  <si>
-    <t>SCORES BY RANKING</t>
-  </si>
-  <si>
     <t>QA Model</t>
   </si>
   <si>
@@ -244,15 +238,6 @@
     <t>Final ranking based on mean ranking</t>
   </si>
   <si>
-    <t>NUM SCORES</t>
-  </si>
-  <si>
-    <t>NUM RANKING</t>
-  </si>
-  <si>
-    <t>NUM SCORES BY RANKING</t>
-  </si>
-  <si>
     <t>Model type</t>
   </si>
   <si>
@@ -284,15 +269,6 @@
   </si>
   <si>
     <t>Ranking by mean ranking</t>
-  </si>
-  <si>
-    <t>QA SCORES BY RANKING</t>
-  </si>
-  <si>
-    <t>QA RANKING</t>
-  </si>
-  <si>
-    <t>CONV  RANKING</t>
   </si>
   <si>
     <t>Embedding model</t>
@@ -410,6 +386,33 @@
   </si>
   <si>
     <t>Embedding models statistics by similarity</t>
+  </si>
+  <si>
+    <t>AVERAGE SIMILARITY</t>
+  </si>
+  <si>
+    <t>SCORE</t>
+  </si>
+  <si>
+    <t>AGGREGATED SCORE</t>
+  </si>
+  <si>
+    <t>NUM RANKING BY AGGREGATED SCORE</t>
+  </si>
+  <si>
+    <t>CONV  RANKING BY SCORE</t>
+  </si>
+  <si>
+    <t>NUM SCORE</t>
+  </si>
+  <si>
+    <t>NUM AGGREGATED SCORE</t>
+  </si>
+  <si>
+    <t>NUM RANKING BY NUM AGGREGATED SCORE</t>
+  </si>
+  <si>
+    <t>QA RANKING BY AGGREGATED SCORE</t>
   </si>
 </sst>
 </file>
@@ -983,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1240,7 +1243,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1251,6 +1253,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1269,10 +1274,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,58 +1355,10 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1383,6 +1388,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1398,26 +1415,11 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1431,32 +1433,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1470,33 +1457,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1590,10 +1581,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.36</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.38</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1631,7 +1622,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9F1B5D46-DD36-48FB-A7A6-E962CD322F79}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.37</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>Rankings 10 words</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1732,10 +1723,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.28</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1773,7 +1764,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8843994E-608D-443B-9061-7421BC26DD19}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.27</cx:f>
               <cx:v>Rankings 9 words</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1803,10 +1794,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.32</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1844,7 +1835,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9F1B5D46-DD36-48FB-A7A6-E962CD322F79}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.31</cx:f>
               <cx:v>Rankings 10 words</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1874,10 +1865,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1944,7 +1935,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{76539F62-ABCF-40D2-B84E-21C13F6D9A39}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>Rankings blenderbot</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2145,10 +2136,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2186,7 +2177,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{76539F62-ABCF-40D2-B84E-21C13F6D9A39}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.19</cx:f>
               <cx:v>Rankings blenderbot</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2216,10 +2207,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2257,7 +2248,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B42DC516-8647-4514-8F71-BCE22B81B7B8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>Rankings DialoGPT</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2287,10 +2278,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2328,7 +2319,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F6D430EE-EE6C-445C-9A99-AAF05666437C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>Rankings ChatGPT</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2358,10 +2349,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2399,7 +2390,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DF10159E-25F6-455E-A0ED-EFE89B6938CD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>Rankings 4 words</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2429,10 +2420,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.38</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.34</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2470,7 +2461,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8843994E-608D-443B-9061-7421BC26DD19}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.33</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>Rankings 9 words</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10677,15 +10668,15 @@
   <sheetData>
     <row r="1" spans="1:14" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="121" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B1" s="122"/>
       <c r="C1" s="79" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="123" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F1" s="123"/>
       <c r="G1" s="123"/>
@@ -10712,28 +10703,28 @@
       </c>
       <c r="F2" s="120"/>
       <c r="G2" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="J2" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="111" t="s">
-        <v>35</v>
-      </c>
       <c r="K2" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="112" t="s">
         <v>41</v>
-      </c>
-      <c r="L2" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="112" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -12301,8 +12292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B912D66-690C-4BD3-8171-8447FC410F50}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:K23"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K27" sqref="C24:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12331,7 +12322,7 @@
         <v>1</v>
       </c>
       <c r="M1" s="123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -12366,7 +12357,7 @@
       <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="178"/>
+      <c r="L2" s="177"/>
       <c r="M2" s="123"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -13229,11 +13220,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="154" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="154"/>
+    <row r="23" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="175" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="175"/>
       <c r="C23" s="7">
         <f>AVERAGE(C3:C22)</f>
         <v>0.28058539628982543</v>
@@ -13270,146 +13261,151 @@
         <f t="shared" si="2"/>
         <v>0.6214171171188354</v>
       </c>
-      <c r="L23" s="114">
+      <c r="L23" s="196">
         <f>AVERAGE(C23:K23)</f>
         <v>0.38718712047363318</v>
       </c>
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="154"/>
+      <c r="A24" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="175"/>
       <c r="C24" s="7">
-        <f>RANK(C23,$C$23:$K$23,1)</f>
-        <v>4</v>
+        <f>RANK(C23,$C$23:$K$23,0)</f>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" ref="D24:K24" si="3">RANK(D23,$C$23:$K$23,1)</f>
+        <f t="shared" ref="D24:K24" si="3">RANK(D23,$C$23:$K$23,0)</f>
         <v>5</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="154" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="B25" s="154"/>
       <c r="C25" s="154">
         <f>SUM(C24:E24)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="154"/>
       <c r="E25" s="154"/>
       <c r="F25" s="154">
         <f t="shared" ref="F25" si="4">SUM(F24:H24)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G25" s="154"/>
       <c r="H25" s="154"/>
       <c r="I25" s="154">
         <f t="shared" ref="I25" si="5">SUM(I24:K24)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J25" s="154"/>
       <c r="K25" s="154"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="154" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B26" s="154"/>
       <c r="C26" s="154">
-        <f>RANK(C25,$C$25:$K$25,0)</f>
+        <f>RANK(C25,$C$25:$K$25,1)</f>
         <v>2</v>
       </c>
       <c r="D26" s="154"/>
       <c r="E26" s="154"/>
       <c r="F26" s="154">
-        <f t="shared" ref="F26" si="6">RANK(F25,$C$25:$K$25,0)</f>
+        <f t="shared" ref="F26" si="6">RANK(F25,$C$25:$K$25,1)</f>
         <v>3</v>
       </c>
       <c r="G26" s="154"/>
       <c r="H26" s="154"/>
       <c r="I26" s="154">
-        <f t="shared" ref="I26" si="7">RANK(I25,$C$25:$K$25,0)</f>
+        <f t="shared" ref="I26" si="7">RANK(I25,$C$25:$K$25,1)</f>
         <v>1</v>
       </c>
       <c r="J26" s="154"/>
       <c r="K26" s="154"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="179" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="179"/>
-      <c r="C27">
+      <c r="A27" s="154" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="154"/>
+      <c r="C27" s="7">
         <f>RANK(C23,$C$23:$E$23,0)</f>
         <v>3</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="7">
         <f t="shared" ref="D27:E27" si="8">RANK(D23,$C$23:$E$23,0)</f>
         <v>2</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="7">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="7">
         <f>RANK(F23,$F$23:$H$23,0)</f>
         <v>3</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="7">
         <f t="shared" ref="G27:H27" si="9">RANK(G23,$F$23:$H$23,0)</f>
         <v>2</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="7">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="7">
         <f>RANK(I23,$I$23:$K$23,0)</f>
         <v>2</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="7">
         <f t="shared" ref="J27:K27" si="10">RANK(J23,$I$23:$K$23,0)</f>
         <v>3</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="7">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
@@ -13421,13 +13417,9 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13436,7 +13428,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:AC24"/>
+      <selection activeCell="A24" sqref="A24:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13448,10 +13440,10 @@
     <row r="1" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="154"/>
       <c r="E1" s="154"/>
@@ -13462,7 +13454,7 @@
       <c r="J1" s="154"/>
       <c r="K1" s="154"/>
       <c r="L1" s="154" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M1" s="154"/>
       <c r="N1" s="154"/>
@@ -13473,7 +13465,7 @@
       <c r="S1" s="154"/>
       <c r="T1" s="154"/>
       <c r="U1" s="154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V1" s="154"/>
       <c r="W1" s="154"/>
@@ -13487,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="AE1" s="123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -13495,51 +13487,51 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="192">
+      <c r="C2" s="180">
         <v>4</v>
       </c>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192">
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180">
         <v>9</v>
       </c>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192">
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180">
         <v>10</v>
       </c>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192">
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180">
         <v>4</v>
       </c>
-      <c r="M2" s="192"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="192">
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180">
         <v>9</v>
       </c>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="192"/>
-      <c r="R2" s="192">
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180">
         <v>10</v>
       </c>
-      <c r="S2" s="192"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192">
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180">
         <v>4</v>
       </c>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192">
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180">
         <v>9</v>
       </c>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="192"/>
-      <c r="AA2" s="192">
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="180">
         <v>10</v>
       </c>
-      <c r="AB2" s="192"/>
-      <c r="AC2" s="193"/>
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="181"/>
       <c r="AD2" s="123"/>
       <c r="AE2" s="123"/>
     </row>
@@ -15574,7 +15566,7 @@
     </row>
     <row r="24" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="154" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B24" s="154"/>
       <c r="C24" s="7">
@@ -15691,81 +15683,81 @@
       </c>
     </row>
     <row r="25" spans="1:31" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="177"/>
+      <c r="A25" s="176" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="176"/>
       <c r="C25" s="35">
-        <f>RANK(C24,$C$24:$AC$24,1)</f>
-        <v>11</v>
+        <f>RANK(C24,$C$24:$AC$24,0)</f>
+        <v>17</v>
       </c>
       <c r="D25" s="35">
-        <f t="shared" ref="D25:AC25" si="3">RANK(D24,$C$24:$AC$24,1)</f>
-        <v>10</v>
+        <f t="shared" ref="D25:AC25" si="3">RANK(D24,$C$24:$AC$24,0)</f>
+        <v>18</v>
       </c>
       <c r="E25" s="35">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H25" s="35">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I25" s="35">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J25" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="K25" s="35">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="L25" s="35">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M25" s="35">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N25" s="35">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="O25" s="35">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="P25" s="35">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="Q25" s="35">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="R25" s="35">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="S25" s="35">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="T25" s="35">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="U25" s="35">
         <f t="shared" si="3"/>
@@ -15773,201 +15765,201 @@
       </c>
       <c r="V25" s="35">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W25" s="35">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="X25" s="35">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Y25" s="35">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Z25" s="35">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AA25" s="35">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB25" s="35">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AC25" s="35">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" s="189" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="190"/>
+      <c r="A26" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="184"/>
       <c r="C26" s="36">
-        <f>RANK(C24,$C$24:$K$24,1)</f>
+        <f>RANK(C24,$C$24:$K$24,0)</f>
         <v>5</v>
       </c>
       <c r="D26" s="36">
-        <f t="shared" ref="D26:K26" si="4">RANK(D24,$C$24:$K$24,1)</f>
-        <v>4</v>
+        <f t="shared" ref="D26:K26" si="4">RANK(D24,$C$24:$K$24,0)</f>
+        <v>6</v>
       </c>
       <c r="E26" s="36">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F26" s="36">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G26" s="36">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H26" s="36">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I26" s="36">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J26" s="36">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K26" s="36">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L26" s="36">
-        <f>RANK(L24,$L$24:$T$24,1)</f>
+        <f>RANK(L24,$L$24:$T$24,0)</f>
         <v>5</v>
       </c>
       <c r="M26" s="36">
-        <f t="shared" ref="M26:S26" si="5">RANK(M24,$L$24:$T$24,1)</f>
-        <v>4</v>
+        <f t="shared" ref="M26:T26" si="5">RANK(M24,$L$24:$T$24,0)</f>
+        <v>6</v>
       </c>
       <c r="N26" s="36">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O26" s="36">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P26" s="36">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q26" s="36">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R26" s="36">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S26" s="36">
         <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="T26" s="36">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T26" s="36">
-        <f>RANK(T24,$L$24:$T$24,1)</f>
-        <v>9</v>
-      </c>
       <c r="U26" s="36">
-        <f>RANK(U24,$U$24:$AC$24,1)</f>
+        <f>RANK(U24,$U$24:$AC$24,0)</f>
         <v>5</v>
       </c>
       <c r="V26" s="36">
-        <f t="shared" ref="V26:AC26" si="6">RANK(V24,$U$24:$AC$24,1)</f>
-        <v>6</v>
+        <f t="shared" ref="V26:AC26" si="6">RANK(V24,$U$24:$AC$24,0)</f>
+        <v>4</v>
       </c>
       <c r="W26" s="36">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X26" s="36">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y26" s="36">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Z26" s="36">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA26" s="36">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB26" s="36">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AC26" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC26" s="36">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A27" s="191" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="176"/>
+      <c r="A27" s="185" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="175"/>
       <c r="C27" s="154">
         <f>SUM(C26:E26)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D27" s="154"/>
       <c r="E27" s="154"/>
       <c r="F27" s="154">
         <f t="shared" ref="F27" si="7">SUM(F26:H26)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G27" s="154"/>
       <c r="H27" s="154"/>
       <c r="I27" s="154">
         <f t="shared" ref="I27" si="8">SUM(I26:K26)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J27" s="154"/>
       <c r="K27" s="154"/>
       <c r="L27" s="154">
         <f t="shared" ref="L27" si="9">SUM(L26:N26)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M27" s="154"/>
       <c r="N27" s="154"/>
       <c r="O27" s="154">
         <f t="shared" ref="O27" si="10">SUM(O26:Q26)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P27" s="154"/>
       <c r="Q27" s="154"/>
       <c r="R27" s="154">
         <f t="shared" ref="R27" si="11">SUM(R26:T26)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S27" s="154"/>
       <c r="T27" s="154"/>
       <c r="U27" s="154">
         <f t="shared" ref="U27" si="12">SUM(U26:W26)</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="V27" s="154"/>
       <c r="W27" s="154"/>
       <c r="X27" s="154">
         <f t="shared" ref="X27" si="13">SUM(X26:Z26)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Y27" s="154"/>
       <c r="Z27" s="154"/>
@@ -15976,76 +15968,76 @@
         <v>15</v>
       </c>
       <c r="AB27" s="154"/>
-      <c r="AC27" s="188"/>
+      <c r="AC27" s="182"/>
     </row>
     <row r="28" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="186" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B28" s="187"/>
       <c r="C28" s="157">
-        <f>RANK(C27,$C$27:$K$27,0)</f>
+        <f>RANK(C27,$C$27:$K$27,1)</f>
         <v>1</v>
       </c>
       <c r="D28" s="157"/>
       <c r="E28" s="157"/>
       <c r="F28" s="157">
-        <f t="shared" ref="F28" si="15">RANK(F27,$C$27:$K$27,0)</f>
+        <f t="shared" ref="F28" si="15">RANK(F27,$C$27:$K$27,1)</f>
         <v>3</v>
       </c>
       <c r="G28" s="157"/>
       <c r="H28" s="157"/>
       <c r="I28" s="157">
-        <f t="shared" ref="I28" si="16">RANK(I27,$C$27:$K$27,0)</f>
+        <f t="shared" ref="I28" si="16">RANK(I27,$C$27:$K$27,1)</f>
         <v>2</v>
       </c>
       <c r="J28" s="157"/>
       <c r="K28" s="157"/>
       <c r="L28" s="157">
-        <f>RANK(L27,$L$27:$T$27,0)</f>
+        <f>RANK(L27,$L$27:$T$27,1)</f>
         <v>1</v>
       </c>
       <c r="M28" s="157"/>
       <c r="N28" s="157"/>
       <c r="O28" s="157">
-        <f t="shared" ref="O28" si="17">RANK(O27,$L$27:$T$27,0)</f>
+        <f t="shared" ref="O28" si="17">RANK(O27,$L$27:$T$27,1)</f>
         <v>3</v>
       </c>
       <c r="P28" s="157"/>
       <c r="Q28" s="157"/>
       <c r="R28" s="157">
-        <f t="shared" ref="R28" si="18">RANK(R27,$L$27:$T$27,0)</f>
+        <f t="shared" ref="R28" si="18">RANK(R27,$L$27:$T$27,1)</f>
         <v>2</v>
       </c>
       <c r="S28" s="157"/>
       <c r="T28" s="157"/>
       <c r="U28" s="157">
-        <f>RANK(U27,$U$27:$AC$27,0)</f>
+        <f>RANK(U27,$U$27:$AC$27,1)</f>
         <v>1</v>
       </c>
       <c r="V28" s="157"/>
       <c r="W28" s="157"/>
       <c r="X28" s="157">
-        <f t="shared" ref="X28" si="19">RANK(X27,$U$27:$AC$27,0)</f>
+        <f t="shared" ref="X28" si="19">RANK(X27,$U$27:$AC$27,1)</f>
         <v>3</v>
       </c>
       <c r="Y28" s="157"/>
       <c r="Z28" s="157"/>
       <c r="AA28" s="157">
-        <f t="shared" ref="AA28" si="20">RANK(AA27,$U$27:$AC$27,0)</f>
+        <f t="shared" ref="AA28" si="20">RANK(AA27,$U$27:$AC$27,1)</f>
         <v>2</v>
       </c>
       <c r="AB28" s="157"/>
-      <c r="AC28" s="183"/>
+      <c r="AC28" s="157"/>
     </row>
     <row r="29" spans="1:31" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="180" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="181"/>
+      <c r="A29" s="188" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="189"/>
       <c r="C29" s="159">
         <f>SUM(C25:K25)</f>
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="D29" s="159"/>
       <c r="E29" s="159"/>
@@ -16057,7 +16049,7 @@
       <c r="K29" s="159"/>
       <c r="L29" s="159">
         <f t="shared" ref="L29" si="21">SUM(L25:T25)</f>
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="M29" s="159"/>
       <c r="N29" s="159"/>
@@ -16069,7 +16061,7 @@
       <c r="T29" s="159"/>
       <c r="U29" s="159">
         <f t="shared" ref="U29" si="22">SUM(U25:AC25)</f>
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="V29" s="159"/>
       <c r="W29" s="159"/>
@@ -16078,15 +16070,15 @@
       <c r="Z29" s="159"/>
       <c r="AA29" s="159"/>
       <c r="AB29" s="159"/>
-      <c r="AC29" s="182"/>
+      <c r="AC29" s="190"/>
     </row>
     <row r="30" spans="1:31" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="184" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="185"/>
+      <c r="A30" s="191" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="192"/>
       <c r="C30" s="157">
-        <f>RANK(C29,$C$29:$AC$29,0)</f>
+        <f>RANK(C29,$C$29:$AC$29,1)</f>
         <v>3</v>
       </c>
       <c r="D30" s="157"/>
@@ -16098,7 +16090,7 @@
       <c r="J30" s="157"/>
       <c r="K30" s="157"/>
       <c r="L30" s="157">
-        <f t="shared" ref="L30" si="23">RANK(L29,$C$29:$AC$29,0)</f>
+        <f t="shared" ref="L30" si="23">RANK(L29,$C$29:$AC$29,1)</f>
         <v>1</v>
       </c>
       <c r="M30" s="157"/>
@@ -16110,7 +16102,7 @@
       <c r="S30" s="157"/>
       <c r="T30" s="157"/>
       <c r="U30" s="157">
-        <f t="shared" ref="U30" si="24">RANK(U29,$C$29:$AC$29,0)</f>
+        <f t="shared" ref="U30" si="24">RANK(U29,$C$29:$AC$29,1)</f>
         <v>2</v>
       </c>
       <c r="V30" s="157"/>
@@ -16120,26 +16112,28 @@
       <c r="Z30" s="157"/>
       <c r="AA30" s="157"/>
       <c r="AB30" s="157"/>
-      <c r="AC30" s="183"/>
+      <c r="AC30" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AC1"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:T29"/>
+    <mergeCell ref="U29:AC29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:T30"/>
+    <mergeCell ref="U30:AC30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
     <mergeCell ref="AA27:AC27"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
@@ -16151,24 +16145,22 @@
     <mergeCell ref="R27:T27"/>
     <mergeCell ref="U27:W27"/>
     <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:T29"/>
-    <mergeCell ref="U29:AC29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:T30"/>
-    <mergeCell ref="U30:AC30"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16178,8 +16170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2EC181-99A7-400E-B077-DC6B00EA7B2E}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:AC24"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16196,46 +16188,46 @@
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="21"/>
       <c r="B1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="194" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="195" t="s">
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
+      <c r="P1" s="194"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="194"/>
+      <c r="T1" s="194"/>
+      <c r="U1" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="195"/>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="196"/>
-      <c r="AD1" s="194" t="s">
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="194"/>
+      <c r="AA1" s="194"/>
+      <c r="AB1" s="194"/>
+      <c r="AC1" s="193"/>
+      <c r="AD1" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="194" t="s">
-        <v>36</v>
+      <c r="AE1" s="195" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -16243,53 +16235,53 @@
       <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="195">
+      <c r="C2" s="194">
         <v>4</v>
       </c>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195">
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194">
         <v>9</v>
       </c>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195">
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194">
         <v>10</v>
       </c>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195">
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194">
         <v>4</v>
       </c>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195">
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194">
         <v>9</v>
       </c>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="195">
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="194">
         <v>10</v>
       </c>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195">
+      <c r="S2" s="194"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194">
         <v>4</v>
       </c>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195">
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194">
         <v>9</v>
       </c>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="195">
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="194">
         <v>10</v>
       </c>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="194"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="193"/>
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
     </row>
     <row r="3" spans="1:31" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
@@ -16377,8 +16369,8 @@
       <c r="AC3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="194"/>
-      <c r="AE3" s="194"/>
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
@@ -18321,10 +18313,10 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A24" s="196" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="197"/>
+      <c r="A24" s="154" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="154"/>
       <c r="C24" s="32">
         <f>AVERAGE(C4:C23)</f>
         <v>0.41367008304223418</v>
@@ -18438,368 +18430,368 @@
         <v>0.46797986191662921</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="196" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="197"/>
-      <c r="C25" s="32">
-        <f>RANK(C24,$C$24:$AC$24,1)</f>
-        <v>10</v>
-      </c>
-      <c r="D25" s="32">
-        <f t="shared" ref="D25:AC25" si="3">RANK(D24,$C$24:$AC$24,1)</f>
-        <v>8</v>
-      </c>
-      <c r="E25" s="32">
+    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="176" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="176"/>
+      <c r="C25" s="35">
+        <f>RANK(C24,$C$24:$AC$24,0)</f>
+        <v>18</v>
+      </c>
+      <c r="D25" s="35">
+        <f t="shared" ref="D25:AC25" si="3">RANK(D24,$C$24:$AC$24,0)</f>
+        <v>20</v>
+      </c>
+      <c r="E25" s="35">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F25" s="35">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="G25" s="35">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="H25" s="35">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I25" s="35">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="J25" s="35">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K25" s="35">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L25" s="35">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="M25" s="35">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="35">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="O25" s="35">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F25" s="32">
+      <c r="P25" s="35">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="G25" s="32">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="35">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="R25" s="35">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="S25" s="35">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="T25" s="35">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="U25" s="35">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="V25" s="35">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="W25" s="35">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="X25" s="35">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="Y25" s="35">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="Z25" s="35">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H25" s="32">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="I25" s="32">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="J25" s="32">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K25" s="32">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="L25" s="32">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="M25" s="32">
+      <c r="AA25" s="35">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="N25" s="32">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="O25" s="32">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="P25" s="32">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="Q25" s="32">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="R25" s="32">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="S25" s="32">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="T25" s="32">
+      <c r="AB25" s="35">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="U25" s="32">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="V25" s="32">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="W25" s="32">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="X25" s="32">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="Y25" s="32">
+      <c r="AC25" s="35">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z25" s="32">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="AA25" s="32">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="AB25" s="32">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="26" spans="1:31" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="184"/>
+      <c r="C26" s="36">
+        <f>RANK(C24,$C$24:$K$24,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="36">
+        <f t="shared" ref="D26:K26" si="4">RANK(D24,$C$24:$K$24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E26" s="36">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AC25" s="32">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="176" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="176"/>
-      <c r="C26" s="7">
-        <f>RANK(C24,$C$24:$K$24,1)</f>
-        <v>5</v>
-      </c>
-      <c r="D26" s="7">
-        <f t="shared" ref="D26:K26" si="4">RANK(D24,$C$24:$K$24,1)</f>
-        <v>4</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="F26" s="36">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F26" s="7">
+      <c r="G26" s="36">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G26" s="7">
+        <v>8</v>
+      </c>
+      <c r="H26" s="36">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H26" s="7">
+      <c r="I26" s="36">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
+        <v>4</v>
+      </c>
+      <c r="J26" s="36">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="J26" s="7">
+        <v>9</v>
+      </c>
+      <c r="K26" s="36">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K26" s="7">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="L26" s="7">
-        <f>RANK(L24,$L$24:$T$24,1)</f>
+      <c r="L26" s="36">
+        <f>RANK(L24,$L$24:$T$24,0)</f>
         <v>5</v>
       </c>
-      <c r="M26" s="7">
-        <f t="shared" ref="M26:S26" si="5">RANK(M24,$L$24:$T$24,1)</f>
-        <v>4</v>
-      </c>
-      <c r="N26" s="7">
+      <c r="M26" s="36">
+        <f t="shared" ref="M26:T26" si="5">RANK(M24,$L$24:$T$24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="N26" s="36">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O26" s="36">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="O26" s="7">
+      <c r="P26" s="36">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="P26" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="36">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R26" s="36">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S26" s="36">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="T26" s="36">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="7">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="R26" s="7">
-        <f t="shared" si="5"/>
+      <c r="U26" s="36">
+        <f>RANK(U24,$U$24:$AC$24,0)</f>
+        <v>4</v>
+      </c>
+      <c r="V26" s="36">
+        <f t="shared" ref="V26:AC26" si="6">RANK(V24,$U$24:$AC$24,0)</f>
         <v>6</v>
       </c>
-      <c r="S26" s="7">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="T26" s="7">
-        <f>RANK(T24,$L$24:$T$24,1)</f>
-        <v>9</v>
-      </c>
-      <c r="U26" s="7">
-        <f>RANK(U24,$U$24:$AC$24,1)</f>
-        <v>6</v>
-      </c>
-      <c r="V26" s="7">
-        <f t="shared" ref="V26:AC26" si="6">RANK(V24,$U$24:$AC$24,1)</f>
-        <v>4</v>
-      </c>
-      <c r="W26" s="7">
+      <c r="W26" s="36">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="X26" s="36">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="X26" s="7">
+      <c r="Y26" s="36">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Y26" s="7">
+        <v>9</v>
+      </c>
+      <c r="Z26" s="36">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA26" s="36">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AB26" s="36">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AC26" s="36">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Z26" s="7">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AA26" s="7">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AB26" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AC26" s="7">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
     </row>
-    <row r="27" spans="1:31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="176" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="176"/>
+    <row r="27" spans="1:31" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="185" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="175"/>
       <c r="C27" s="154">
         <f>SUM(C26:E26)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="154"/>
       <c r="E27" s="154"/>
       <c r="F27" s="154">
         <f t="shared" ref="F27" si="7">SUM(F26:H26)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G27" s="154"/>
       <c r="H27" s="154"/>
       <c r="I27" s="154">
         <f t="shared" ref="I27" si="8">SUM(I26:K26)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J27" s="154"/>
       <c r="K27" s="154"/>
       <c r="L27" s="154">
         <f t="shared" ref="L27" si="9">SUM(L26:N26)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M27" s="154"/>
       <c r="N27" s="154"/>
       <c r="O27" s="154">
         <f t="shared" ref="O27" si="10">SUM(O26:Q26)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P27" s="154"/>
       <c r="Q27" s="154"/>
       <c r="R27" s="154">
         <f t="shared" ref="R27" si="11">SUM(R26:T26)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="S27" s="154"/>
       <c r="T27" s="154"/>
       <c r="U27" s="154">
         <f t="shared" ref="U27" si="12">SUM(U26:W26)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="V27" s="154"/>
       <c r="W27" s="154"/>
       <c r="X27" s="154">
         <f t="shared" ref="X27" si="13">SUM(X26:Z26)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Y27" s="154"/>
       <c r="Z27" s="154"/>
       <c r="AA27" s="154">
         <f t="shared" ref="AA27" si="14">SUM(AA26:AC26)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB27" s="154"/>
-      <c r="AC27" s="154"/>
+      <c r="AC27" s="182"/>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
     </row>
-    <row r="28" spans="1:31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="176" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="176"/>
-      <c r="C28" s="154">
-        <f>RANK(C27,$C$27:$K$27,0)</f>
+    <row r="28" spans="1:31" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="186" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="187"/>
+      <c r="C28" s="157">
+        <f>RANK(C27,$C$27:$K$27,1)</f>
         <v>1</v>
       </c>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154">
-        <f t="shared" ref="F28" si="15">RANK(F27,$C$27:$K$27,0)</f>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157">
+        <f t="shared" ref="F28" si="15">RANK(F27,$C$27:$K$27,1)</f>
         <v>3</v>
       </c>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154">
-        <f t="shared" ref="I28" si="16">RANK(I27,$C$27:$K$27,0)</f>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157">
+        <f t="shared" ref="I28" si="16">RANK(I27,$C$27:$K$27,1)</f>
         <v>1</v>
       </c>
-      <c r="J28" s="154"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="154">
-        <f>RANK(L27,$L$27:$T$27,0)</f>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157">
+        <f>RANK(L27,$L$27:$T$27,1)</f>
         <v>2</v>
       </c>
-      <c r="M28" s="154"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="154">
-        <f t="shared" ref="O28" si="17">RANK(O27,$L$27:$T$27,0)</f>
+      <c r="M28" s="157"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157">
+        <f t="shared" ref="O28" si="17">RANK(O27,$L$27:$T$27,1)</f>
         <v>3</v>
       </c>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="154">
-        <f t="shared" ref="R28" si="18">RANK(R27,$L$27:$T$27,0)</f>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="157">
+        <f t="shared" ref="R28" si="18">RANK(R27,$L$27:$T$27,1)</f>
         <v>1</v>
       </c>
-      <c r="S28" s="154"/>
-      <c r="T28" s="154"/>
-      <c r="U28" s="154">
-        <f>RANK(U27,$U$27:$AC$27,0)</f>
+      <c r="S28" s="157"/>
+      <c r="T28" s="157"/>
+      <c r="U28" s="157">
+        <f>RANK(U27,$U$27:$AC$27,1)</f>
         <v>1</v>
       </c>
-      <c r="V28" s="154"/>
-      <c r="W28" s="154"/>
-      <c r="X28" s="154">
-        <f t="shared" ref="X28" si="19">RANK(X27,$U$27:$AC$27,0)</f>
+      <c r="V28" s="157"/>
+      <c r="W28" s="157"/>
+      <c r="X28" s="157">
+        <f t="shared" ref="X28" si="19">RANK(X27,$U$27:$AC$27,1)</f>
         <v>3</v>
       </c>
-      <c r="Y28" s="154"/>
-      <c r="Z28" s="154"/>
-      <c r="AA28" s="154">
-        <f t="shared" ref="AA28" si="20">RANK(AA27,$U$27:$AC$27,0)</f>
+      <c r="Y28" s="157"/>
+      <c r="Z28" s="157"/>
+      <c r="AA28" s="157">
+        <f t="shared" ref="AA28" si="20">RANK(AA27,$U$27:$AC$27,1)</f>
         <v>2</v>
       </c>
-      <c r="AB28" s="154"/>
-      <c r="AC28" s="154"/>
+      <c r="AB28" s="157"/>
+      <c r="AC28" s="157"/>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
     </row>
     <row r="29" spans="1:31" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="180" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="181"/>
+      <c r="A29" s="188" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="189"/>
       <c r="C29" s="159">
         <f>SUM(C25:K25)</f>
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="D29" s="159"/>
       <c r="E29" s="159"/>
@@ -18811,7 +18803,7 @@
       <c r="K29" s="159"/>
       <c r="L29" s="159">
         <f t="shared" ref="L29" si="21">SUM(L25:T25)</f>
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="M29" s="159"/>
       <c r="N29" s="159"/>
@@ -18823,7 +18815,7 @@
       <c r="T29" s="159"/>
       <c r="U29" s="159">
         <f t="shared" ref="U29" si="22">SUM(U25:AC25)</f>
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="V29" s="159"/>
       <c r="W29" s="159"/>
@@ -18832,17 +18824,17 @@
       <c r="Z29" s="159"/>
       <c r="AA29" s="159"/>
       <c r="AB29" s="159"/>
-      <c r="AC29" s="182"/>
+      <c r="AC29" s="190"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
     </row>
     <row r="30" spans="1:31" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="184" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="185"/>
+      <c r="A30" s="191" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="192"/>
       <c r="C30" s="157">
-        <f>RANK(C29,$C$29:$AC$29,0)</f>
+        <f>RANK(C29,$C$29:$AC$29,1)</f>
         <v>3</v>
       </c>
       <c r="D30" s="157"/>
@@ -18854,7 +18846,7 @@
       <c r="J30" s="157"/>
       <c r="K30" s="157"/>
       <c r="L30" s="157">
-        <f t="shared" ref="L30" si="23">RANK(L29,$C$29:$AC$29,0)</f>
+        <f t="shared" ref="L30" si="23">RANK(L29,$C$29:$AC$29,1)</f>
         <v>1</v>
       </c>
       <c r="M30" s="157"/>
@@ -18866,7 +18858,7 @@
       <c r="S30" s="157"/>
       <c r="T30" s="157"/>
       <c r="U30" s="157">
-        <f t="shared" ref="U30" si="24">RANK(U29,$C$29:$AC$29,0)</f>
+        <f t="shared" ref="U30" si="24">RANK(U29,$C$29:$AC$29,1)</f>
         <v>2</v>
       </c>
       <c r="V30" s="157"/>
@@ -18876,33 +18868,20 @@
       <c r="Z30" s="157"/>
       <c r="AA30" s="157"/>
       <c r="AB30" s="157"/>
-      <c r="AC30" s="183"/>
+      <c r="AC30" s="157"/>
       <c r="AD30" s="10"/>
       <c r="AE30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AC1"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:T29"/>
+    <mergeCell ref="U29:AC29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:T30"/>
+    <mergeCell ref="U30:AC30"/>
     <mergeCell ref="AA27:AC27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:E28"/>
@@ -18919,14 +18898,27 @@
     <mergeCell ref="R27:T27"/>
     <mergeCell ref="U27:W27"/>
     <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:T29"/>
-    <mergeCell ref="U29:AC29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:T30"/>
-    <mergeCell ref="U30:AC30"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18957,90 +18949,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="152" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="141" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="141"/>
-      <c r="Z1" s="128" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA1" s="128"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="Z1" s="144" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA1" s="144"/>
       <c r="AB1" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="133" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG1" s="133"/>
-      <c r="AH1" s="133"/>
-      <c r="AI1" s="133"/>
-      <c r="AJ1" s="133"/>
-      <c r="AK1" s="133"/>
-      <c r="AL1" s="133"/>
-      <c r="AM1" s="133"/>
-      <c r="AN1" s="133"/>
-      <c r="AO1" s="133"/>
-      <c r="AP1" s="133"/>
-      <c r="AQ1" s="133"/>
-      <c r="AR1" s="133"/>
-      <c r="AS1" s="133"/>
-      <c r="AT1" s="133"/>
-      <c r="AU1" s="133"/>
-      <c r="AV1" s="133"/>
-      <c r="AY1" s="146" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ1" s="146"/>
+        <v>75</v>
+      </c>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="146"/>
+      <c r="AF1" s="149" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="149"/>
+      <c r="AM1" s="149"/>
+      <c r="AN1" s="149"/>
+      <c r="AO1" s="149"/>
+      <c r="AP1" s="149"/>
+      <c r="AQ1" s="149"/>
+      <c r="AR1" s="149"/>
+      <c r="AS1" s="149"/>
+      <c r="AT1" s="149"/>
+      <c r="AU1" s="149"/>
+      <c r="AV1" s="149"/>
+      <c r="AY1" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ1" s="125"/>
       <c r="BA1" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC1" s="147"/>
-      <c r="BD1" s="148"/>
-      <c r="BE1" s="151" t="s">
-        <v>78</v>
-      </c>
-      <c r="BF1" s="151"/>
-      <c r="BG1" s="151"/>
-      <c r="BH1" s="151"/>
-      <c r="BI1" s="151"/>
-      <c r="BJ1" s="151"/>
-      <c r="BK1" s="151"/>
-      <c r="BL1" s="151"/>
-      <c r="BM1" s="151"/>
-      <c r="BN1" s="151"/>
-      <c r="BO1" s="151"/>
-      <c r="BP1" s="151"/>
-      <c r="BQ1" s="151"/>
-      <c r="BR1" s="151"/>
-      <c r="BS1" s="151"/>
-      <c r="BT1" s="151"/>
-      <c r="BU1" s="151"/>
+        <v>76</v>
+      </c>
+      <c r="BC1" s="126"/>
+      <c r="BD1" s="127"/>
+      <c r="BE1" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF1" s="130"/>
+      <c r="BG1" s="130"/>
+      <c r="BH1" s="130"/>
+      <c r="BI1" s="130"/>
+      <c r="BJ1" s="130"/>
+      <c r="BK1" s="130"/>
+      <c r="BL1" s="130"/>
+      <c r="BM1" s="130"/>
+      <c r="BN1" s="130"/>
+      <c r="BO1" s="130"/>
+      <c r="BP1" s="130"/>
+      <c r="BQ1" s="130"/>
+      <c r="BR1" s="130"/>
+      <c r="BS1" s="130"/>
+      <c r="BT1" s="130"/>
+      <c r="BU1" s="130"/>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" s="71">
@@ -19052,29 +19044,29 @@
       <c r="C2" s="64">
         <v>1</v>
       </c>
-      <c r="E2" s="137"/>
-      <c r="F2" s="139"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="80"/>
-      <c r="H2" s="127" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
+      <c r="H2" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
       <c r="Z2" s="71">
         <v>0</v>
       </c>
@@ -19084,29 +19076,29 @@
       <c r="AB2" s="64">
         <v>2</v>
       </c>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="131"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="147"/>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="134" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="134"/>
-      <c r="AM2" s="134" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN2" s="134"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="134"/>
-      <c r="AQ2" s="134"/>
-      <c r="AR2" s="134"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="129"/>
-      <c r="AV2" s="129"/>
+      <c r="AG2" s="150" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="150"/>
+      <c r="AJ2" s="150"/>
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="150" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN2" s="150"/>
+      <c r="AO2" s="150"/>
+      <c r="AP2" s="150"/>
+      <c r="AQ2" s="150"/>
+      <c r="AR2" s="150"/>
+      <c r="AS2" s="145"/>
+      <c r="AT2" s="145"/>
+      <c r="AU2" s="145"/>
+      <c r="AV2" s="145"/>
       <c r="AY2" s="71">
         <v>0</v>
       </c>
@@ -19116,29 +19108,29 @@
       <c r="BA2" s="64">
         <v>10</v>
       </c>
-      <c r="BC2" s="147"/>
-      <c r="BD2" s="149"/>
+      <c r="BC2" s="126"/>
+      <c r="BD2" s="128"/>
       <c r="BE2" s="100"/>
-      <c r="BF2" s="152" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG2" s="152"/>
-      <c r="BH2" s="152"/>
-      <c r="BI2" s="152"/>
-      <c r="BJ2" s="152"/>
-      <c r="BK2" s="152"/>
-      <c r="BL2" s="152" t="s">
-        <v>80</v>
-      </c>
-      <c r="BM2" s="152"/>
-      <c r="BN2" s="152"/>
-      <c r="BO2" s="152"/>
-      <c r="BP2" s="152"/>
-      <c r="BQ2" s="152"/>
-      <c r="BR2" s="147"/>
-      <c r="BS2" s="147"/>
-      <c r="BT2" s="147"/>
-      <c r="BU2" s="147"/>
+      <c r="BF2" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG2" s="131"/>
+      <c r="BH2" s="131"/>
+      <c r="BI2" s="131"/>
+      <c r="BJ2" s="131"/>
+      <c r="BK2" s="131"/>
+      <c r="BL2" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM2" s="131"/>
+      <c r="BN2" s="131"/>
+      <c r="BO2" s="131"/>
+      <c r="BP2" s="131"/>
+      <c r="BQ2" s="131"/>
+      <c r="BR2" s="126"/>
+      <c r="BS2" s="126"/>
+      <c r="BT2" s="126"/>
+      <c r="BU2" s="126"/>
     </row>
     <row r="3" spans="1:73" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="65">
@@ -19150,35 +19142,35 @@
       <c r="C3" s="66">
         <v>7</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="139"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="140"/>
       <c r="G3" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="153" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
-      <c r="W3" s="137"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="153"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="153" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="153"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
       <c r="Z3" s="65">
         <v>1</v>
       </c>
@@ -19188,35 +19180,35 @@
       <c r="AB3" s="66">
         <v>3</v>
       </c>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="131"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="147"/>
       <c r="AF3" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" s="151" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" s="151"/>
+      <c r="AI3" s="151"/>
+      <c r="AJ3" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="AG3" s="135" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK3" s="135"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="135" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="135" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="129"/>
-      <c r="AT3" s="129"/>
-      <c r="AU3" s="129"/>
-      <c r="AV3" s="129"/>
+      <c r="AK3" s="151"/>
+      <c r="AL3" s="151"/>
+      <c r="AM3" s="151" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN3" s="151"/>
+      <c r="AO3" s="151"/>
+      <c r="AP3" s="151" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ3" s="151"/>
+      <c r="AR3" s="151"/>
+      <c r="AS3" s="145"/>
+      <c r="AT3" s="145"/>
+      <c r="AU3" s="145"/>
+      <c r="AV3" s="145"/>
       <c r="AY3" s="65">
         <v>1</v>
       </c>
@@ -19226,35 +19218,35 @@
       <c r="BA3" s="66">
         <v>5</v>
       </c>
-      <c r="BC3" s="147"/>
-      <c r="BD3" s="149"/>
+      <c r="BC3" s="126"/>
+      <c r="BD3" s="128"/>
       <c r="BE3" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF3" s="132" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG3" s="132"/>
+      <c r="BH3" s="132"/>
+      <c r="BI3" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="BF3" s="153" t="s">
-        <v>51</v>
-      </c>
-      <c r="BG3" s="153"/>
-      <c r="BH3" s="153"/>
-      <c r="BI3" s="153" t="s">
-        <v>53</v>
-      </c>
-      <c r="BJ3" s="153"/>
-      <c r="BK3" s="153"/>
-      <c r="BL3" s="153" t="s">
-        <v>51</v>
-      </c>
-      <c r="BM3" s="153"/>
-      <c r="BN3" s="153"/>
-      <c r="BO3" s="153" t="s">
-        <v>53</v>
-      </c>
-      <c r="BP3" s="153"/>
-      <c r="BQ3" s="153"/>
-      <c r="BR3" s="147"/>
-      <c r="BS3" s="147"/>
-      <c r="BT3" s="147"/>
-      <c r="BU3" s="147"/>
+      <c r="BJ3" s="132"/>
+      <c r="BK3" s="132"/>
+      <c r="BL3" s="132" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM3" s="132"/>
+      <c r="BN3" s="132"/>
+      <c r="BO3" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP3" s="132"/>
+      <c r="BQ3" s="132"/>
+      <c r="BR3" s="126"/>
+      <c r="BS3" s="126"/>
+      <c r="BT3" s="126"/>
+      <c r="BU3" s="126"/>
     </row>
     <row r="4" spans="1:73" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="65">
@@ -19266,10 +19258,10 @@
       <c r="C4" s="66">
         <v>4</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="140"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="141"/>
       <c r="G4" s="81" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H4" s="82">
         <v>4</v>
@@ -19308,16 +19300,16 @@
         <v>10</v>
       </c>
       <c r="T4" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="85" t="s">
         <v>41</v>
-      </c>
-      <c r="U4" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="85" t="s">
-        <v>43</v>
       </c>
       <c r="Z4" s="65">
         <v>2</v>
@@ -19328,10 +19320,10 @@
       <c r="AB4" s="66">
         <v>20</v>
       </c>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="132"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="148"/>
       <c r="AF4" s="89" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AG4" s="90">
         <v>4</v>
@@ -19370,16 +19362,16 @@
         <v>10</v>
       </c>
       <c r="AS4" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT4" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU4" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV4" s="93" t="s">
         <v>41</v>
-      </c>
-      <c r="AT4" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU4" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV4" s="93" t="s">
-        <v>43</v>
       </c>
       <c r="AY4" s="65">
         <v>2</v>
@@ -19390,10 +19382,10 @@
       <c r="BA4" s="66">
         <v>11</v>
       </c>
-      <c r="BC4" s="147"/>
-      <c r="BD4" s="150"/>
+      <c r="BC4" s="126"/>
+      <c r="BD4" s="129"/>
       <c r="BE4" s="95" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="BF4" s="96">
         <v>4</v>
@@ -19432,16 +19424,16 @@
         <v>10</v>
       </c>
       <c r="BR4" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS4" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="BT4" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="BU4" s="99" t="s">
         <v>41</v>
-      </c>
-      <c r="BS4" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="BT4" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="BU4" s="99" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.3">
@@ -19454,8 +19446,8 @@
       <c r="C5" s="66">
         <v>8</v>
       </c>
-      <c r="E5" s="136" t="s">
-        <v>74</v>
+      <c r="E5" s="137" t="s">
+        <v>66</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -19530,8 +19522,8 @@
       <c r="AB5" s="66">
         <v>14</v>
       </c>
-      <c r="AD5" s="145" t="s">
-        <v>74</v>
+      <c r="AD5" s="136" t="s">
+        <v>66</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -19606,8 +19598,8 @@
       <c r="BA5" s="66">
         <v>12</v>
       </c>
-      <c r="BC5" s="142" t="s">
-        <v>74</v>
+      <c r="BC5" s="133" t="s">
+        <v>66</v>
       </c>
       <c r="BD5" s="1">
         <v>0</v>
@@ -19684,7 +19676,7 @@
       <c r="C6" s="66">
         <v>20</v>
       </c>
-      <c r="E6" s="136"/>
+      <c r="E6" s="137"/>
       <c r="F6" s="6">
         <v>1</v>
       </c>
@@ -19758,7 +19750,7 @@
       <c r="AB6" s="66">
         <v>13</v>
       </c>
-      <c r="AD6" s="145"/>
+      <c r="AD6" s="136"/>
       <c r="AE6" s="6">
         <v>1</v>
       </c>
@@ -19832,7 +19824,7 @@
       <c r="BA6" s="66">
         <v>6</v>
       </c>
-      <c r="BC6" s="142"/>
+      <c r="BC6" s="133"/>
       <c r="BD6" s="6">
         <v>1</v>
       </c>
@@ -19908,7 +19900,7 @@
       <c r="C7" s="66">
         <v>5</v>
       </c>
-      <c r="E7" s="136"/>
+      <c r="E7" s="137"/>
       <c r="F7" s="6">
         <v>2</v>
       </c>
@@ -19982,7 +19974,7 @@
       <c r="AB7" s="66">
         <v>7</v>
       </c>
-      <c r="AD7" s="145"/>
+      <c r="AD7" s="136"/>
       <c r="AE7" s="6">
         <v>2</v>
       </c>
@@ -20056,7 +20048,7 @@
       <c r="BA7" s="66">
         <v>19</v>
       </c>
-      <c r="BC7" s="142"/>
+      <c r="BC7" s="133"/>
       <c r="BD7" s="6">
         <v>2</v>
       </c>
@@ -20132,7 +20124,7 @@
       <c r="C8" s="66">
         <v>12</v>
       </c>
-      <c r="E8" s="136"/>
+      <c r="E8" s="137"/>
       <c r="F8" s="6">
         <v>3</v>
       </c>
@@ -20206,7 +20198,7 @@
       <c r="AB8" s="66">
         <v>15</v>
       </c>
-      <c r="AD8" s="145"/>
+      <c r="AD8" s="136"/>
       <c r="AE8" s="6">
         <v>3</v>
       </c>
@@ -20280,7 +20272,7 @@
       <c r="BA8" s="66">
         <v>9</v>
       </c>
-      <c r="BC8" s="142"/>
+      <c r="BC8" s="133"/>
       <c r="BD8" s="6">
         <v>3</v>
       </c>
@@ -20356,7 +20348,7 @@
       <c r="C9" s="66">
         <v>18</v>
       </c>
-      <c r="E9" s="136"/>
+      <c r="E9" s="137"/>
       <c r="F9" s="6">
         <v>4</v>
       </c>
@@ -20430,7 +20422,7 @@
       <c r="AB9" s="66">
         <v>19</v>
       </c>
-      <c r="AD9" s="145"/>
+      <c r="AD9" s="136"/>
       <c r="AE9" s="6">
         <v>4</v>
       </c>
@@ -20504,7 +20496,7 @@
       <c r="BA9" s="66">
         <v>8</v>
       </c>
-      <c r="BC9" s="142"/>
+      <c r="BC9" s="133"/>
       <c r="BD9" s="6">
         <v>4</v>
       </c>
@@ -20580,7 +20572,7 @@
       <c r="C10" s="66">
         <v>13</v>
       </c>
-      <c r="E10" s="136"/>
+      <c r="E10" s="137"/>
       <c r="F10" s="6">
         <v>5</v>
       </c>
@@ -20654,7 +20646,7 @@
       <c r="AB10" s="66">
         <v>8</v>
       </c>
-      <c r="AD10" s="145"/>
+      <c r="AD10" s="136"/>
       <c r="AE10" s="6">
         <v>5</v>
       </c>
@@ -20728,7 +20720,7 @@
       <c r="BA10" s="66">
         <v>20</v>
       </c>
-      <c r="BC10" s="142"/>
+      <c r="BC10" s="133"/>
       <c r="BD10" s="6">
         <v>5</v>
       </c>
@@ -20804,7 +20796,7 @@
       <c r="C11" s="66">
         <v>9</v>
       </c>
-      <c r="E11" s="136"/>
+      <c r="E11" s="137"/>
       <c r="F11" s="6">
         <v>6</v>
       </c>
@@ -20878,7 +20870,7 @@
       <c r="AB11" s="66">
         <v>10</v>
       </c>
-      <c r="AD11" s="145"/>
+      <c r="AD11" s="136"/>
       <c r="AE11" s="6">
         <v>6</v>
       </c>
@@ -20952,7 +20944,7 @@
       <c r="BA11" s="66">
         <v>7</v>
       </c>
-      <c r="BC11" s="142"/>
+      <c r="BC11" s="133"/>
       <c r="BD11" s="6">
         <v>6</v>
       </c>
@@ -21028,7 +21020,7 @@
       <c r="C12" s="66">
         <v>19</v>
       </c>
-      <c r="E12" s="136"/>
+      <c r="E12" s="137"/>
       <c r="F12" s="6">
         <v>7</v>
       </c>
@@ -21102,7 +21094,7 @@
       <c r="AB12" s="66">
         <v>4</v>
       </c>
-      <c r="AD12" s="145"/>
+      <c r="AD12" s="136"/>
       <c r="AE12" s="6">
         <v>7</v>
       </c>
@@ -21176,7 +21168,7 @@
       <c r="BA12" s="66">
         <v>15</v>
       </c>
-      <c r="BC12" s="142"/>
+      <c r="BC12" s="133"/>
       <c r="BD12" s="6">
         <v>7</v>
       </c>
@@ -21252,7 +21244,7 @@
       <c r="C13" s="66">
         <v>2</v>
       </c>
-      <c r="E13" s="136"/>
+      <c r="E13" s="137"/>
       <c r="F13" s="6">
         <v>8</v>
       </c>
@@ -21326,7 +21318,7 @@
       <c r="AB13" s="66">
         <v>9</v>
       </c>
-      <c r="AD13" s="145"/>
+      <c r="AD13" s="136"/>
       <c r="AE13" s="6">
         <v>8</v>
       </c>
@@ -21400,7 +21392,7 @@
       <c r="BA13" s="66">
         <v>4</v>
       </c>
-      <c r="BC13" s="142"/>
+      <c r="BC13" s="133"/>
       <c r="BD13" s="6">
         <v>8</v>
       </c>
@@ -21476,7 +21468,7 @@
       <c r="C14" s="66">
         <v>11</v>
       </c>
-      <c r="E14" s="136"/>
+      <c r="E14" s="137"/>
       <c r="F14" s="6">
         <v>9</v>
       </c>
@@ -21550,7 +21542,7 @@
       <c r="AB14" s="66">
         <v>16</v>
       </c>
-      <c r="AD14" s="145"/>
+      <c r="AD14" s="136"/>
       <c r="AE14" s="6">
         <v>9</v>
       </c>
@@ -21624,7 +21616,7 @@
       <c r="BA14" s="66">
         <v>14</v>
       </c>
-      <c r="BC14" s="142"/>
+      <c r="BC14" s="133"/>
       <c r="BD14" s="6">
         <v>9</v>
       </c>
@@ -21700,7 +21692,7 @@
       <c r="C15" s="66">
         <v>3</v>
       </c>
-      <c r="E15" s="136"/>
+      <c r="E15" s="137"/>
       <c r="F15" s="6">
         <v>10</v>
       </c>
@@ -21774,7 +21766,7 @@
       <c r="AB15" s="66">
         <v>11</v>
       </c>
-      <c r="AD15" s="145"/>
+      <c r="AD15" s="136"/>
       <c r="AE15" s="6">
         <v>10</v>
       </c>
@@ -21848,7 +21840,7 @@
       <c r="BA15" s="66">
         <v>2</v>
       </c>
-      <c r="BC15" s="142"/>
+      <c r="BC15" s="133"/>
       <c r="BD15" s="6">
         <v>10</v>
       </c>
@@ -21924,7 +21916,7 @@
       <c r="C16" s="66">
         <v>6</v>
       </c>
-      <c r="E16" s="136"/>
+      <c r="E16" s="137"/>
       <c r="F16" s="6">
         <v>11</v>
       </c>
@@ -21998,7 +21990,7 @@
       <c r="AB16" s="66">
         <v>1</v>
       </c>
-      <c r="AD16" s="145"/>
+      <c r="AD16" s="136"/>
       <c r="AE16" s="6">
         <v>11</v>
       </c>
@@ -22072,7 +22064,7 @@
       <c r="BA16" s="66">
         <v>3</v>
       </c>
-      <c r="BC16" s="142"/>
+      <c r="BC16" s="133"/>
       <c r="BD16" s="6">
         <v>11</v>
       </c>
@@ -22148,7 +22140,7 @@
       <c r="C17" s="66">
         <v>15</v>
       </c>
-      <c r="E17" s="136"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="6">
         <v>12</v>
       </c>
@@ -22222,7 +22214,7 @@
       <c r="AB17" s="66">
         <v>17</v>
       </c>
-      <c r="AD17" s="145"/>
+      <c r="AD17" s="136"/>
       <c r="AE17" s="6">
         <v>12</v>
       </c>
@@ -22296,7 +22288,7 @@
       <c r="BA17" s="66">
         <v>1</v>
       </c>
-      <c r="BC17" s="142"/>
+      <c r="BC17" s="133"/>
       <c r="BD17" s="6">
         <v>12</v>
       </c>
@@ -22372,7 +22364,7 @@
       <c r="C18" s="66">
         <v>17</v>
       </c>
-      <c r="E18" s="136"/>
+      <c r="E18" s="137"/>
       <c r="F18" s="6">
         <v>13</v>
       </c>
@@ -22446,7 +22438,7 @@
       <c r="AB18" s="66">
         <v>5</v>
       </c>
-      <c r="AD18" s="145"/>
+      <c r="AD18" s="136"/>
       <c r="AE18" s="6">
         <v>13</v>
       </c>
@@ -22520,7 +22512,7 @@
       <c r="BA18" s="66">
         <v>16</v>
       </c>
-      <c r="BC18" s="142"/>
+      <c r="BC18" s="133"/>
       <c r="BD18" s="6">
         <v>13</v>
       </c>
@@ -22596,7 +22588,7 @@
       <c r="C19" s="66">
         <v>10</v>
       </c>
-      <c r="E19" s="136"/>
+      <c r="E19" s="137"/>
       <c r="F19" s="6">
         <v>14</v>
       </c>
@@ -22670,7 +22662,7 @@
       <c r="AB19" s="66">
         <v>12</v>
       </c>
-      <c r="AD19" s="145"/>
+      <c r="AD19" s="136"/>
       <c r="AE19" s="6">
         <v>14</v>
       </c>
@@ -22744,7 +22736,7 @@
       <c r="BA19" s="66">
         <v>13</v>
       </c>
-      <c r="BC19" s="142"/>
+      <c r="BC19" s="133"/>
       <c r="BD19" s="6">
         <v>14</v>
       </c>
@@ -22820,7 +22812,7 @@
       <c r="C20" s="66">
         <v>14</v>
       </c>
-      <c r="E20" s="136"/>
+      <c r="E20" s="137"/>
       <c r="F20" s="6">
         <v>15</v>
       </c>
@@ -22894,7 +22886,7 @@
       <c r="AB20" s="66">
         <v>6</v>
       </c>
-      <c r="AD20" s="145"/>
+      <c r="AD20" s="136"/>
       <c r="AE20" s="6">
         <v>15</v>
       </c>
@@ -22968,7 +22960,7 @@
       <c r="BA20" s="66">
         <v>17</v>
       </c>
-      <c r="BC20" s="142"/>
+      <c r="BC20" s="133"/>
       <c r="BD20" s="6">
         <v>15</v>
       </c>
@@ -23044,7 +23036,7 @@
       <c r="C21" s="69">
         <v>16</v>
       </c>
-      <c r="E21" s="136"/>
+      <c r="E21" s="137"/>
       <c r="F21" s="6">
         <v>16</v>
       </c>
@@ -23118,7 +23110,7 @@
       <c r="AB21" s="69">
         <v>18</v>
       </c>
-      <c r="AD21" s="145"/>
+      <c r="AD21" s="136"/>
       <c r="AE21" s="6">
         <v>16</v>
       </c>
@@ -23192,7 +23184,7 @@
       <c r="BA21" s="69">
         <v>18</v>
       </c>
-      <c r="BC21" s="142"/>
+      <c r="BC21" s="133"/>
       <c r="BD21" s="6">
         <v>16</v>
       </c>
@@ -23268,7 +23260,7 @@
       <c r="C22" s="64">
         <v>1</v>
       </c>
-      <c r="E22" s="136"/>
+      <c r="E22" s="137"/>
       <c r="F22" s="6">
         <v>17</v>
       </c>
@@ -23342,7 +23334,7 @@
       <c r="AB22" s="64">
         <v>7</v>
       </c>
-      <c r="AD22" s="145"/>
+      <c r="AD22" s="136"/>
       <c r="AE22" s="6">
         <v>17</v>
       </c>
@@ -23416,7 +23408,7 @@
       <c r="BA22" s="64">
         <v>10</v>
       </c>
-      <c r="BC22" s="142"/>
+      <c r="BC22" s="133"/>
       <c r="BD22" s="6">
         <v>17</v>
       </c>
@@ -23492,7 +23484,7 @@
       <c r="C23" s="66">
         <v>9</v>
       </c>
-      <c r="E23" s="136"/>
+      <c r="E23" s="137"/>
       <c r="F23" s="6">
         <v>18</v>
       </c>
@@ -23566,7 +23558,7 @@
       <c r="AB23" s="66">
         <v>2</v>
       </c>
-      <c r="AD23" s="145"/>
+      <c r="AD23" s="136"/>
       <c r="AE23" s="6">
         <v>18</v>
       </c>
@@ -23640,7 +23632,7 @@
       <c r="BA23" s="66">
         <v>7</v>
       </c>
-      <c r="BC23" s="142"/>
+      <c r="BC23" s="133"/>
       <c r="BD23" s="6">
         <v>18</v>
       </c>
@@ -23717,7 +23709,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="136"/>
+      <c r="E24" s="137"/>
       <c r="F24" s="6">
         <v>19</v>
       </c>
@@ -23792,7 +23784,7 @@
         <v>10</v>
       </c>
       <c r="AC24" s="10"/>
-      <c r="AD24" s="145"/>
+      <c r="AD24" s="136"/>
       <c r="AE24" s="6">
         <v>19</v>
       </c>
@@ -23867,7 +23859,7 @@
         <v>11</v>
       </c>
       <c r="BB24" s="10"/>
-      <c r="BC24" s="142"/>
+      <c r="BC24" s="133"/>
       <c r="BD24" s="6">
         <v>19</v>
       </c>
@@ -23944,13 +23936,13 @@
         <v>12</v>
       </c>
       <c r="S25" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="T25" s="143" cm="1">
+        <v>77</v>
+      </c>
+      <c r="T25" s="134" cm="1">
         <f t="array" ref="T25">AVERAGE(U5:U23-T5:T23)</f>
         <v>7.9473684210526319</v>
       </c>
-      <c r="U25" s="144"/>
+      <c r="U25" s="135"/>
       <c r="Z25" s="65">
         <v>3</v>
       </c>
@@ -23962,13 +23954,13 @@
       </c>
       <c r="AQ25" s="14"/>
       <c r="AR25" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS25" s="143" cm="1">
+        <v>77</v>
+      </c>
+      <c r="AS25" s="134" cm="1">
         <f t="array" ref="AS25">AVERAGE(AT5:AT23-AS5:AS23)</f>
         <v>10.578947368421053</v>
       </c>
-      <c r="AT25" s="144"/>
+      <c r="AT25" s="135"/>
       <c r="AY25" s="65">
         <v>3</v>
       </c>
@@ -23979,13 +23971,13 @@
         <v>12</v>
       </c>
       <c r="BQ25" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="BR25" s="143" cm="1">
+        <v>77</v>
+      </c>
+      <c r="BR25" s="134" cm="1">
         <f t="array" ref="BR25">AVERAGE(BS5:BS23-BR5:BR23)</f>
         <v>8.2105263157894743</v>
       </c>
-      <c r="BS25" s="144"/>
+      <c r="BS25" s="135"/>
     </row>
     <row r="26" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A26" s="65">
@@ -26773,6 +26765,34 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AD1:AD4"/>
+    <mergeCell ref="AE1:AE4"/>
+    <mergeCell ref="AF1:AV1"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="AS2:AV3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="E5:E24"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G1:W1"/>
+    <mergeCell ref="T2:W3"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="BC5:BC24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="AS25:AT25"/>
+    <mergeCell ref="BR25:BS25"/>
+    <mergeCell ref="AD5:AD24"/>
     <mergeCell ref="AY1:AZ1"/>
     <mergeCell ref="BC1:BC4"/>
     <mergeCell ref="BD1:BD4"/>
@@ -26784,34 +26804,6 @@
     <mergeCell ref="BI3:BK3"/>
     <mergeCell ref="BL3:BN3"/>
     <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BC5:BC24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="AS25:AT25"/>
-    <mergeCell ref="BR25:BS25"/>
-    <mergeCell ref="AD5:AD24"/>
-    <mergeCell ref="E5:E24"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G1:W1"/>
-    <mergeCell ref="T2:W3"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AD1:AD4"/>
-    <mergeCell ref="AE1:AE4"/>
-    <mergeCell ref="AF1:AV1"/>
-    <mergeCell ref="AG2:AL2"/>
-    <mergeCell ref="AM2:AR2"/>
-    <mergeCell ref="AS2:AV3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="H2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26834,26 +26826,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="125" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="125"/>
+      <c r="A1" s="152" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="152"/>
       <c r="C1" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y1" s="125" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z1" s="125"/>
+        <v>78</v>
+      </c>
+      <c r="Y1" s="152" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="152"/>
       <c r="AA1" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW1" s="125" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX1" s="125"/>
+        <v>84</v>
+      </c>
+      <c r="AW1" s="152" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX1" s="152"/>
       <c r="AY1" s="70" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AZ1" s="107"/>
     </row>
@@ -27003,16 +26995,16 @@
         <v>5</v>
       </c>
       <c r="S3" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="103" t="s">
         <v>41</v>
-      </c>
-      <c r="T3" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="103" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="103" t="s">
-        <v>43</v>
       </c>
       <c r="Y3" s="65">
         <v>1</v>
@@ -27064,16 +27056,16 @@
         <v>5</v>
       </c>
       <c r="AQ3" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR3" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS3" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT3" s="103" t="s">
         <v>41</v>
-      </c>
-      <c r="AR3" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS3" s="103" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT3" s="103" t="s">
-        <v>43</v>
       </c>
       <c r="AW3" s="65">
         <v>1</v>
@@ -27125,16 +27117,16 @@
         <v>5</v>
       </c>
       <c r="BO3" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="BP3" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="BQ3" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="BR3" s="103" t="s">
         <v>41</v>
-      </c>
-      <c r="BP3" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="BQ3" s="103" t="s">
-        <v>56</v>
-      </c>
-      <c r="BR3" s="103" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.3">
@@ -31568,13 +31560,13 @@
         <v>20</v>
       </c>
       <c r="R24" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="S24" s="143" cm="1">
+        <v>77</v>
+      </c>
+      <c r="S24" s="134" cm="1">
         <f t="array" ref="S24">AVERAGE(T4:T22-S4:S22)</f>
         <v>11.105263157894736</v>
       </c>
-      <c r="T24" s="144"/>
+      <c r="T24" s="135"/>
       <c r="Y24" s="65">
         <v>2</v>
       </c>
@@ -31585,13 +31577,13 @@
         <v>10</v>
       </c>
       <c r="AP24" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ24" s="143" cm="1">
+        <v>77</v>
+      </c>
+      <c r="AQ24" s="134" cm="1">
         <f t="array" ref="AQ24">AVERAGE(AR4:AR22-AQ4:AQ22)</f>
         <v>10.315789473684211</v>
       </c>
-      <c r="AR24" s="144"/>
+      <c r="AR24" s="135"/>
       <c r="AW24" s="65">
         <v>2</v>
       </c>
@@ -31602,13 +31594,13 @@
         <v>10</v>
       </c>
       <c r="BN24" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO24" s="143" cm="1">
+        <v>77</v>
+      </c>
+      <c r="BO24" s="134" cm="1">
         <f t="array" ref="BO24">AVERAGE(BP4:BP22-BO4:BO22)</f>
         <v>11.684210526315789</v>
       </c>
-      <c r="BP24" s="144"/>
+      <c r="BP24" s="135"/>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A25" s="65">
@@ -34457,7 +34449,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="154" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -34467,16 +34459,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="154" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" s="154" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C2" s="154" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D2" s="154" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E2" s="154"/>
       <c r="F2" s="154"/>
@@ -34497,13 +34489,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" s="9">
         <v>2</v>
@@ -34517,13 +34509,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D5" s="9">
         <v>2</v>
@@ -34537,13 +34529,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -34557,13 +34549,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -34577,13 +34569,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -34597,13 +34589,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="9">
         <v>2</v>
@@ -34617,13 +34609,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -34637,13 +34629,13 @@
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="41">
         <v>1</v>
@@ -34657,7 +34649,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="158" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="159"/>
       <c r="C12" s="159"/>
@@ -34676,7 +34668,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="155" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="154"/>
       <c r="C13" s="154"/>
@@ -34695,7 +34687,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="155" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" s="154"/>
       <c r="C14" s="154"/>
@@ -34714,7 +34706,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="156" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B15" s="157"/>
       <c r="C15" s="157"/>
@@ -34763,14 +34755,14 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="154" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
       <c r="D1" s="154"/>
       <c r="E1" s="154"/>
       <c r="G1" s="154" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H1" s="154"/>
       <c r="I1" s="154"/>
@@ -34779,10 +34771,10 @@
     </row>
     <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -34794,10 +34786,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>3</v>
@@ -34811,7 +34803,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3" s="7">
         <v>4</v>
@@ -34826,7 +34818,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H3" s="7">
         <v>4</v>
@@ -34843,7 +34835,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" s="7">
         <v>9</v>
@@ -34858,7 +34850,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -34875,7 +34867,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B5" s="7">
         <v>10</v>
@@ -34890,7 +34882,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -34907,7 +34899,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
@@ -34922,7 +34914,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -34939,7 +34931,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B7" s="7">
         <v>9</v>
@@ -34954,7 +34946,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -34971,7 +34963,7 @@
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B8" s="35">
         <v>10</v>
@@ -34986,7 +34978,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H8" s="35">
         <v>10</v>
@@ -35003,7 +34995,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="36">
@@ -35019,7 +35011,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="36">
@@ -35037,7 +35029,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="7">
@@ -35053,7 +35045,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="7">
@@ -35071,7 +35063,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="7">
@@ -35086,8 +35078,8 @@
         <f>AVERAGE(E3:E8)</f>
         <v>1</v>
       </c>
-      <c r="G11" s="117" t="s">
-        <v>96</v>
+      <c r="G11" s="116" t="s">
+        <v>88</v>
       </c>
       <c r="H11" s="113"/>
       <c r="I11" s="35">
@@ -35098,14 +35090,14 @@
         <f>AVERAGE(J3:J8)</f>
         <v>0.27258280432627852</v>
       </c>
-      <c r="K11" s="118">
+      <c r="K11" s="117">
         <f>AVERAGE(K3:K8)</f>
         <v>0.62384175782402362</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="45" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="46">
@@ -35120,8 +35112,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -35153,14 +35145,14 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="160" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B1" s="161"/>
       <c r="C1" s="161"/>
       <c r="D1" s="162"/>
       <c r="E1" s="10"/>
       <c r="F1" s="160" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G1" s="161"/>
       <c r="H1" s="161"/>
@@ -35169,28 +35161,28 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3" s="9">
         <v>3</v>
@@ -35202,7 +35194,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <f>AVERAGE(E10:M10)</f>
@@ -35219,7 +35211,7 @@
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B4" s="41">
         <v>3</v>
@@ -35231,7 +35223,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G4" s="41">
         <f>AVERAGE(E14:M14)</f>
@@ -35248,7 +35240,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="36">
         <f>MIN(B3:B4)</f>
@@ -35263,7 +35255,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G5" s="36">
         <f>MIN(G3:G4)</f>
@@ -35280,7 +35272,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="7">
         <f>MAX(B3:B4)</f>
@@ -35295,7 +35287,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G6" s="7">
         <f>MAX(G3:G4)</f>
@@ -35312,7 +35304,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B7" s="7">
         <f>AVERAGE(B3:B4)</f>
@@ -35327,7 +35319,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G7" s="7">
         <f>AVERAGE(G3:G4)</f>
@@ -35344,7 +35336,7 @@
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B8" s="46">
         <f>RANK(B7,$B$7:$D$7,1)</f>
@@ -35579,51 +35571,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
+      <c r="A1" s="163" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="171" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="171" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="171" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="170">
+      <c r="A2" s="166" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="166" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="166" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="165">
         <v>4</v>
       </c>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170">
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165">
         <v>9</v>
       </c>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170">
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165">
         <v>10</v>
       </c>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
     </row>
     <row r="3" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
       <c r="D3" s="60" t="s">
         <v>3</v>
       </c>
@@ -35654,13 +35646,13 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" s="9">
         <v>0.23998502194881438</v>
@@ -35692,13 +35684,13 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D5" s="9">
         <v>0.28058539628982543</v>
@@ -35730,13 +35722,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="9">
         <v>0.39446436502039434</v>
@@ -35769,13 +35761,13 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="9">
         <v>0.43283005580306055</v>
@@ -35807,13 +35799,13 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="9">
         <v>0.41052524223923681</v>
@@ -35845,13 +35837,13 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="9">
         <v>0.41367008304223418</v>
@@ -35883,13 +35875,13 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9">
         <v>0.46079335324466231</v>
@@ -35921,13 +35913,13 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="9">
         <v>0.43883306905627251</v>
@@ -35988,17 +35980,17 @@
       <c r="AB13" s="58"/>
     </row>
     <row r="14" spans="1:28" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="167" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="167"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
+      <c r="A14" s="171" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="171"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
       <c r="G14" s="59"/>
       <c r="H14" s="123" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I14" s="123"/>
       <c r="J14" s="123"/>
@@ -36023,24 +36015,24 @@
     </row>
     <row r="15" spans="1:28" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="61" t="s">
-        <v>55</v>
-      </c>
       <c r="F15" s="61" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G15" s="55"/>
       <c r="H15" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>3</v>
@@ -36052,7 +36044,7 @@
         <v>5</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M15" s="55"/>
       <c r="N15" s="56"/>
@@ -36072,14 +36064,14 @@
       <c r="AB15" s="55"/>
     </row>
     <row r="16" spans="1:28" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="163">
+      <c r="A16" s="167">
         <v>4</v>
       </c>
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="167" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="39">
         <f>MIN(D4:D5)</f>
@@ -36094,7 +36086,7 @@
         <v>0.15447934307157996</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I16" s="39">
         <f>AVERAGE(F16,F25,F34)</f>
@@ -36119,10 +36111,10 @@
       <c r="T16" s="56"/>
     </row>
     <row r="17" spans="1:20" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="164"/>
-      <c r="B17" s="164"/>
+      <c r="A17" s="168"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="39">
         <f>MAX(D4:D5)</f>
@@ -36137,7 +36129,7 @@
         <v>0.18020795695483688</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I17" s="39">
         <f>AVERAGE(F17,F26,F35)</f>
@@ -36159,10 +36151,10 @@
       <c r="Q17" s="55"/>
     </row>
     <row r="18" spans="1:20" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="164"/>
-      <c r="B18" s="165"/>
+      <c r="A18" s="168"/>
+      <c r="B18" s="169"/>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="39">
         <f>AVERAGE(D4:D5)</f>
@@ -36177,7 +36169,7 @@
         <v>0.16490081894832354</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I18" s="39">
         <f>AVERAGE(F18,F27,F36)</f>
@@ -36199,12 +36191,12 @@
       <c r="Q18" s="55"/>
     </row>
     <row r="19" spans="1:20" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="164"/>
-      <c r="B19" s="163" t="s">
+      <c r="A19" s="168"/>
+      <c r="B19" s="167" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="39">
         <f>MIN(E4:E5)</f>
@@ -36223,10 +36215,10 @@
       <c r="Q19" s="55"/>
     </row>
     <row r="20" spans="1:20" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="164"/>
-      <c r="B20" s="164"/>
+      <c r="A20" s="168"/>
+      <c r="B20" s="168"/>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="39">
         <f>MAX(E4:E5)</f>
@@ -36245,10 +36237,10 @@
       <c r="Q20" s="55"/>
     </row>
     <row r="21" spans="1:20" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="164"/>
-      <c r="B21" s="165"/>
+      <c r="A21" s="168"/>
+      <c r="B21" s="169"/>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="39">
         <f>AVERAGE(E4:E5)</f>
@@ -36267,12 +36259,12 @@
       <c r="Q21" s="55"/>
     </row>
     <row r="22" spans="1:20" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="164"/>
-      <c r="B22" s="163" t="s">
+      <c r="A22" s="168"/>
+      <c r="B22" s="167" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="39">
         <f>MIN(F4:F5)</f>
@@ -36291,10 +36283,10 @@
       <c r="Q22" s="55"/>
     </row>
     <row r="23" spans="1:20" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="164"/>
-      <c r="B23" s="164"/>
+      <c r="A23" s="168"/>
+      <c r="B23" s="168"/>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D23" s="39">
         <f>MAX(F4:F5)</f>
@@ -36313,10 +36305,10 @@
       <c r="Q23" s="55"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="165"/>
-      <c r="B24" s="165"/>
+      <c r="A24" s="169"/>
+      <c r="B24" s="169"/>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" s="9">
         <f>AVERAGE(F4:F5)</f>
@@ -36344,14 +36336,14 @@
       <c r="T24" s="57"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="163">
+      <c r="A25" s="167">
         <v>9</v>
       </c>
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="167" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="9">
         <f>MIN(G4:G5)</f>
@@ -36379,10 +36371,10 @@
       <c r="T25" s="57"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="164"/>
-      <c r="B26" s="164"/>
+      <c r="A26" s="168"/>
+      <c r="B26" s="168"/>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D26" s="9">
         <f>MAX(G4:G5)</f>
@@ -36410,10 +36402,10 @@
       <c r="T26" s="57"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="164"/>
-      <c r="B27" s="165"/>
+      <c r="A27" s="168"/>
+      <c r="B27" s="169"/>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="39">
         <f>AVERAGE(G4:G5)</f>
@@ -36441,12 +36433,12 @@
       <c r="T27" s="57"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="164"/>
-      <c r="B28" s="163" t="s">
+      <c r="A28" s="168"/>
+      <c r="B28" s="167" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" s="39">
         <f>MIN(H4:H5)</f>
@@ -36462,10 +36454,10 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="164"/>
-      <c r="B29" s="164"/>
+      <c r="A29" s="168"/>
+      <c r="B29" s="168"/>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D29" s="39">
         <f>MAX(H4:H5)</f>
@@ -36481,10 +36473,10 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="164"/>
-      <c r="B30" s="165"/>
+      <c r="A30" s="168"/>
+      <c r="B30" s="169"/>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D30" s="39">
         <f>AVERAGE(H4:H5)</f>
@@ -36500,12 +36492,12 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="164"/>
-      <c r="B31" s="163" t="s">
+      <c r="A31" s="168"/>
+      <c r="B31" s="167" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" s="39">
         <f>MIN(I4:I5)</f>
@@ -36533,10 +36525,10 @@
       <c r="T31" s="57"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="164"/>
-      <c r="B32" s="164"/>
+      <c r="A32" s="168"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D32" s="9">
         <f>MAX(I4:I5)</f>
@@ -36564,10 +36556,10 @@
       <c r="T32" s="57"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="165"/>
-      <c r="B33" s="165"/>
+      <c r="A33" s="169"/>
+      <c r="B33" s="169"/>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" s="9">
         <f>AVERAGE(I4:I5)</f>
@@ -36595,14 +36587,14 @@
       <c r="T33" s="57"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="163">
+      <c r="A34" s="167">
         <v>10</v>
       </c>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="167" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" s="9">
         <f>MIN(J4:J5)</f>
@@ -36630,10 +36622,10 @@
       <c r="T34" s="57"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="164"/>
-      <c r="B35" s="164"/>
+      <c r="A35" s="168"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D35" s="9">
         <f>MAX(J4:J5)</f>
@@ -36661,10 +36653,10 @@
       <c r="T35" s="57"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="164"/>
-      <c r="B36" s="165"/>
+      <c r="A36" s="168"/>
+      <c r="B36" s="169"/>
       <c r="C36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" s="9">
         <f>AVERAGE(J4:J5)</f>
@@ -36680,12 +36672,12 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="164"/>
-      <c r="B37" s="163" t="s">
+      <c r="A37" s="168"/>
+      <c r="B37" s="167" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" s="9">
         <f>MIN(K4:K5)</f>
@@ -36701,10 +36693,10 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="164"/>
-      <c r="B38" s="164"/>
+      <c r="A38" s="168"/>
+      <c r="B38" s="168"/>
       <c r="C38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D38" s="9">
         <f>MAX(K4:K5)</f>
@@ -36720,10 +36712,10 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="164"/>
-      <c r="B39" s="165"/>
+      <c r="A39" s="168"/>
+      <c r="B39" s="169"/>
       <c r="C39" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D39" s="9">
         <f>AVERAGE(K4:K5)</f>
@@ -36739,12 +36731,12 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="164"/>
-      <c r="B40" s="163" t="s">
+      <c r="A40" s="168"/>
+      <c r="B40" s="167" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40" s="9">
         <f>MIN(L4:L5)</f>
@@ -36760,10 +36752,10 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="164"/>
-      <c r="B41" s="164"/>
+      <c r="A41" s="168"/>
+      <c r="B41" s="168"/>
       <c r="C41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D41" s="9">
         <f>MAX(L4:L5)</f>
@@ -36779,10 +36771,10 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="165"/>
-      <c r="B42" s="165"/>
+      <c r="A42" s="169"/>
+      <c r="B42" s="169"/>
       <c r="C42" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D42" s="9">
         <f>AVERAGE(L4:L5)</f>
@@ -36798,12 +36790,12 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="166" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="166"/>
+      <c r="A43" s="170" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="170"/>
       <c r="C43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D43" s="9">
         <f t="shared" ref="D43:E45" si="2">AVERAGE(D16,D19,D22,D25,D28,D31,D34,D37,D40)</f>
@@ -36819,10 +36811,10 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="166"/>
-      <c r="B44" s="166"/>
+      <c r="A44" s="170"/>
+      <c r="B44" s="170"/>
       <c r="C44" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="2"/>
@@ -36838,10 +36830,10 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="166"/>
-      <c r="B45" s="166"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="170"/>
       <c r="C45" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D45" s="9">
         <f t="shared" si="2"/>
@@ -36858,13 +36850,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
     <mergeCell ref="A25:A33"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="A43:B45"/>
@@ -36880,6 +36865,13 @@
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36890,7 +36882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D24ECC8-A5F9-46D7-B219-33758E9F05F6}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+    <sheetView zoomScale="108" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -36905,7 +36897,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="123" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -36913,77 +36905,77 @@
       <c r="E1" s="123"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="200"/>
+      <c r="A2" s="118"/>
       <c r="B2" s="3"/>
       <c r="C2" s="123" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2" s="123"/>
       <c r="E2" s="3"/>
       <c r="F2" s="10"/>
-      <c r="H2" s="115"/>
+      <c r="H2" s="114"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="200"/>
-      <c r="B3" s="200"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="115"/>
+        <v>90</v>
+      </c>
+      <c r="H3" s="114"/>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="123" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="200">
+        <v>45</v>
+      </c>
+      <c r="C4" s="118">
         <v>0.38580151869811946</v>
       </c>
-      <c r="D4" s="200">
+      <c r="D4" s="118">
         <v>0.38718712047363318</v>
       </c>
       <c r="E4" s="3">
         <f>D4-C4</f>
         <v>1.3856017755137229E-3</v>
       </c>
-      <c r="H4" s="115"/>
+      <c r="H4" s="114"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="123"/>
       <c r="B5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="200">
+        <v>50</v>
+      </c>
+      <c r="C5" s="118">
         <v>0.45935825936979163</v>
       </c>
-      <c r="D5" s="200">
+      <c r="D5" s="118">
         <v>0.46797986191662921</v>
       </c>
       <c r="E5" s="3">
         <f>D5-C5</f>
         <v>8.6216025468375812E-3</v>
       </c>
-      <c r="H5" s="115"/>
+      <c r="H5" s="114"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="198" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="199"/>
+      <c r="A6" s="172" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="173"/>
       <c r="C6" s="3">
         <f>AVERAGE(C4:C5)</f>
         <v>0.42257988903395555</v>
@@ -36996,52 +36988,52 @@
         <f>D6-C6</f>
         <v>5.0036021611756243E-3</v>
       </c>
-      <c r="H6" s="115"/>
+      <c r="H6" s="114"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="H7" s="115"/>
+      <c r="H7" s="114"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="H8" s="115"/>
+      <c r="H8" s="114"/>
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="115"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="H9" s="115"/>
+      <c r="H9" s="114"/>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="H10" s="115"/>
+      <c r="H10" s="114"/>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="116"/>
-      <c r="B11" s="116"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="H11" s="115"/>
+      <c r="H11" s="114"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="116"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -37062,8 +37054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DF6934-C084-4756-ABD9-A0CCBC65EE07}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:K23"/>
+    <sheetView topLeftCell="A8" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37089,16 +37081,16 @@
       <c r="J1" s="154"/>
       <c r="K1" s="160"/>
       <c r="L1" s="124" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" s="175" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="M1" s="174" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -37127,7 +37119,7 @@
       <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="178"/>
+      <c r="L2" s="177"/>
       <c r="M2" s="119"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -37991,10 +37983,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="176" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="176"/>
+      <c r="A23" s="175" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="175"/>
       <c r="C23" s="7">
         <f>AVERAGE(C3:C22)</f>
         <v>0.23998502194881438</v>
@@ -38038,100 +38030,100 @@
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="176" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="176"/>
+      <c r="A24" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="175"/>
       <c r="C24" s="7">
-        <f>RANK(C23,$C$23:$K$23,1)</f>
-        <v>2</v>
+        <f>RANK(C23,$C$23:$K$23,0)</f>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" ref="D24:K24" si="3">RANK(D23,$C$23:$K$23,1)</f>
+        <f t="shared" ref="D24:J24" si="3">RANK(D23,$C$23:$K$23,0)</f>
         <v>5</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f>RANK(K23,$C$23:$K$23,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="177" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="177"/>
-      <c r="C25" s="177">
+      <c r="A25" s="176" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="176"/>
+      <c r="C25" s="176">
         <f>SUM(C24:E24)</f>
         <v>15</v>
       </c>
-      <c r="D25" s="177"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="177">
+      <c r="D25" s="176"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="176">
         <f t="shared" ref="F25" si="4">SUM(F24:H24)</f>
+        <v>18</v>
+      </c>
+      <c r="G25" s="176"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="176">
+        <f t="shared" ref="I25" si="5">SUM(I24:K24)</f>
         <v>12</v>
       </c>
-      <c r="G25" s="177"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="177">
-        <f t="shared" ref="I25" si="5">SUM(I24:K24)</f>
-        <v>18</v>
-      </c>
-      <c r="J25" s="177"/>
-      <c r="K25" s="177"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="176"/>
     </row>
     <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="172" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="173"/>
-      <c r="C26" s="173">
-        <f>RANK(C25,$C$25:$K$25,0)</f>
+      <c r="A26" s="178" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179">
+        <f>RANK(C25,$C$25:$K$25,1)</f>
         <v>2</v>
       </c>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173">
-        <f t="shared" ref="F26" si="6">RANK(F25,$C$25:$K$25,0)</f>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179">
+        <f t="shared" ref="F26" si="6">RANK(F25,$C$25:$K$25,1)</f>
         <v>3</v>
       </c>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173">
-        <f t="shared" ref="I26" si="7">RANK(I25,$C$25:$K$25,0)</f>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179">
+        <f t="shared" ref="I26" si="7">RANK(I25,$C$25:$K$25,1)</f>
         <v>1</v>
       </c>
-      <c r="J26" s="173"/>
-      <c r="K26" s="174"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="179"/>
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="172" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="173"/>
+      <c r="A27" s="178" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="179"/>
       <c r="C27" s="54">
         <f>RANK(C23,$C$23:$E$23,0)</f>
         <v>3</v>
@@ -38171,6 +38163,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
@@ -38182,11 +38179,6 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
